--- a/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/NumberTypes.xlsx
+++ b/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/NumberTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8512a5b4b9cbd9d/UCB/temp/UCB-VIRT-DATA-PT-08-2023-U-LOLC/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8AEC36-6081-7045-908E-27FB5E76713A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{6C8AEC36-6081-7045-908E-27FB5E76713A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFED1916-5E07-4665-A195-C69C315E7F8B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -121,7 +123,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,11 +132,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -480,20 +483,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
-    <col min="3" max="8" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -515,59 +520,65 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2500</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000000000</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="3">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30000</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.25</v>
+      </c>
+      <c r="E7" s="8">
+        <v>45167.845833333333</v>
       </c>
     </row>
   </sheetData>
